--- a/trunk/stm/build/vs2008/test_transport/output.xlsx
+++ b/trunk/stm/build/vs2008/test_transport/output.xlsx
@@ -10,10 +10,10 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
-    <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
+    <sheet name="output" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="advection_tidal_consolidated_128" localSheetId="3">Sheet4!$A$1:$G$256</definedName>
+    <definedName name="advection_tidal_consolidated_128" localSheetId="3">output!$A$1:$G$256</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
 </workbook>
@@ -110,7 +110,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet4!$A$2:$A$384</c:f>
+              <c:f>output!$A$2:$A$384</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="383"/>
@@ -884,7 +884,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet4!$B$2:$B$384</c:f>
+              <c:f>output!$B$2:$B$384</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="383"/>
@@ -1668,7 +1668,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet4!$A$2:$A$384</c:f>
+              <c:f>output!$A$2:$A$384</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="383"/>
@@ -2442,7 +2442,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet4!$C$2:$C$384</c:f>
+              <c:f>output!$C$2:$C$384</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="383"/>
@@ -3226,7 +3226,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet4!$A$1:$A$384</c:f>
+              <c:f>output!$A$1:$A$384</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="384"/>
@@ -4003,7 +4003,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet4!$D$2:$D$384</c:f>
+              <c:f>output!$D$2:$D$384</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="383"/>
@@ -4787,7 +4787,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet4!$A$1:$A$384</c:f>
+              <c:f>output!$A$1:$A$384</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="384"/>
@@ -5564,7 +5564,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet4!$E$1:$E$384</c:f>
+              <c:f>output!$E$1:$E$384</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="384"/>
@@ -6351,7 +6351,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet4!$A$2:$A$384</c:f>
+              <c:f>output!$A$2:$A$384</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="383"/>
@@ -7125,7 +7125,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet4!$G$2:$G$384</c:f>
+              <c:f>output!$G$2:$G$384</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="383"/>
@@ -7915,7 +7915,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet4!$A$2:$A$384</c:f>
+              <c:f>output!$A$2:$A$384</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="383"/>
@@ -8689,7 +8689,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet4!$F$2:$F$384</c:f>
+              <c:f>output!$F$2:$F$384</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="383"/>
@@ -9868,7 +9868,7 @@
   <dimension ref="A1:I256"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1:H1048576"/>
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
